--- a/FOL/Identifica los errores que hay en las nóminas.xlsx
+++ b/FOL/Identifica los errores que hay en las nóminas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\gitDaw\FOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD35B205-D13D-47CA-A832-47D501C117B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA42A3A-5CF8-4D67-9E1E-E29BD2504915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Ricardo Castillo" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,13 +1175,43 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,49 +1250,19 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1626,76 +1632,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1725,12 +1731,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
@@ -2188,19 +2194,19 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="135">
+      <c r="C38" s="114"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="118">
         <v>62</v>
       </c>
-      <c r="F38" s="132">
+      <c r="F38" s="115">
         <v>4.7E-2</v>
       </c>
-      <c r="G38" s="133"/>
-      <c r="H38" s="126">
+      <c r="G38" s="116"/>
+      <c r="H38" s="112">
         <f>E38*F38</f>
         <v>2.9140000000000001</v>
       </c>
@@ -2396,16 +2402,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2461,10 +2467,10 @@
       <c r="G57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="118"/>
+      <c r="I57" s="128"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,11 +2508,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42" t="s">
         <v>67</v>
       </c>
@@ -2522,9 +2528,9 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>44</v>
       </c>
@@ -2532,20 +2538,20 @@
         <f>E58+F64+F65</f>
         <v>1830.6986301369864</v>
       </c>
-      <c r="G61" s="136">
+      <c r="G61" s="119">
         <v>5.5E-2</v>
       </c>
-      <c r="H61" s="137"/>
-      <c r="I61" s="138">
+      <c r="H61" s="120"/>
+      <c r="I61" s="121">
         <f>F61*G61</f>
         <v>100.68842465753426</v>
       </c>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
@@ -2568,11 +2574,11 @@
         <v>69</v>
       </c>
       <c r="F63" s="47"/>
-      <c r="G63" s="136">
+      <c r="G63" s="119">
         <v>2E-3</v>
       </c>
-      <c r="H63" s="137"/>
-      <c r="I63" s="138">
+      <c r="H63" s="120"/>
+      <c r="I63" s="121">
         <f>F61*G63</f>
         <v>3.6613972602739726</v>
       </c>
@@ -2695,76 +2701,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2794,12 +2800,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
@@ -3166,7 +3172,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="91"/>
-      <c r="E35" s="139">
+      <c r="E35" s="122">
         <f>E58</f>
         <v>1200</v>
       </c>
@@ -3187,7 +3193,7 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="92"/>
-      <c r="E36" s="140">
+      <c r="E36" s="123">
         <f>F61</f>
         <v>1260</v>
       </c>
@@ -3208,7 +3214,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="92"/>
-      <c r="E37" s="140">
+      <c r="E37" s="123">
         <f>E36</f>
         <v>1260</v>
       </c>
@@ -3229,7 +3235,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="135">
+      <c r="E38" s="118">
         <v>60</v>
       </c>
       <c r="F38" s="31">
@@ -3432,16 +3438,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3497,10 +3503,10 @@
       <c r="G57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="118"/>
+      <c r="I57" s="128"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3538,11 +3544,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42" t="s">
         <v>86</v>
       </c>
@@ -3558,9 +3564,9 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>44</v>
       </c>
@@ -3579,9 +3585,9 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
@@ -3708,8 +3714,8 @@
   </sheetPr>
   <dimension ref="B1:Q67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3731,76 +3737,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3830,12 +3836,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
@@ -4204,7 +4210,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="91"/>
-      <c r="E35" s="111">
+      <c r="E35" s="136">
         <f>E56</f>
         <v>1200</v>
       </c>
@@ -4225,7 +4231,7 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="92"/>
-      <c r="E36" s="111">
+      <c r="E36" s="136">
         <f>E56</f>
         <v>1200</v>
       </c>
@@ -4246,7 +4252,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="92"/>
-      <c r="E37" s="111">
+      <c r="E37" s="136">
         <f>E56</f>
         <v>1200</v>
       </c>
@@ -4473,16 +4479,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,10 +4545,10 @@
       <c r="G57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="118"/>
+      <c r="I57" s="128"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4580,11 +4586,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42" t="s">
         <v>67</v>
       </c>
@@ -4600,9 +4606,9 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>44</v>
       </c>
@@ -4610,20 +4616,20 @@
         <f>E58+F64+F65</f>
         <v>1400</v>
       </c>
-      <c r="G61" s="136">
+      <c r="G61" s="89">
         <v>5.5E-2</v>
       </c>
-      <c r="H61" s="137"/>
-      <c r="I61" s="138">
+      <c r="H61" s="90"/>
+      <c r="I61" s="78">
         <f>F61*G61</f>
         <v>77</v>
       </c>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
@@ -4646,11 +4652,11 @@
         <v>69</v>
       </c>
       <c r="F63" s="47"/>
-      <c r="G63" s="136">
+      <c r="G63" s="89">
         <v>2E-3</v>
       </c>
-      <c r="H63" s="137"/>
-      <c r="I63" s="138">
+      <c r="H63" s="90"/>
+      <c r="I63" s="78">
         <f>F61*G63</f>
         <v>2.8000000000000003</v>
       </c>
@@ -4742,8 +4748,8 @@
   </sheetPr>
   <dimension ref="B1:Q67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61:I61"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4765,76 +4771,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4864,12 +4870,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
@@ -5521,16 +5527,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5586,10 +5592,10 @@
       <c r="G57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="118"/>
+      <c r="I57" s="128"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5627,11 +5633,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42" t="s">
         <v>67</v>
       </c>
@@ -5647,9 +5653,9 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>44</v>
       </c>
@@ -5657,20 +5663,20 @@
         <f>E58+F64+F65</f>
         <v>653.33333333333337</v>
       </c>
-      <c r="G61" s="136">
+      <c r="G61" s="89">
         <v>5.5E-2</v>
       </c>
-      <c r="H61" s="137"/>
-      <c r="I61" s="138">
+      <c r="H61" s="90"/>
+      <c r="I61" s="78">
         <f>F61*G61</f>
         <v>35.933333333333337</v>
       </c>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
@@ -5693,11 +5699,11 @@
         <v>69</v>
       </c>
       <c r="F63" s="47"/>
-      <c r="G63" s="136">
+      <c r="G63" s="89">
         <v>2E-3</v>
       </c>
-      <c r="H63" s="137"/>
-      <c r="I63" s="138">
+      <c r="H63" s="90"/>
+      <c r="I63" s="78">
         <f>F61*G63</f>
         <v>1.3066666666666669</v>
       </c>
@@ -5710,7 +5716,7 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="112">
+      <c r="F64" s="137">
         <v>35</v>
       </c>
       <c r="G64" s="89">
@@ -5797,8 +5803,8 @@
   </sheetPr>
   <dimension ref="B1:Q67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E37"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5820,76 +5826,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5919,12 +5925,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
@@ -5967,7 +5973,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="109">
+      <c r="H10" s="138">
         <v>975</v>
       </c>
       <c r="I10" s="67"/>
@@ -6294,7 +6300,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="91"/>
-      <c r="E35" s="139">
+      <c r="E35" s="122">
         <f>E58</f>
         <v>1183.3333333333333</v>
       </c>
@@ -6315,7 +6321,7 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="92"/>
-      <c r="E36" s="140">
+      <c r="E36" s="123">
         <f>E58</f>
         <v>1183.3333333333333</v>
       </c>
@@ -6336,7 +6342,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="92"/>
-      <c r="E37" s="140">
+      <c r="E37" s="123">
         <f>E58</f>
         <v>1183.3333333333333</v>
       </c>
@@ -6560,16 +6566,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6625,10 +6631,10 @@
       <c r="G57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="118"/>
+      <c r="I57" s="128"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6666,11 +6672,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42" t="s">
         <v>86</v>
       </c>
@@ -6686,9 +6692,9 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>44</v>
       </c>
@@ -6707,9 +6713,9 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
@@ -6836,8 +6842,8 @@
   </sheetPr>
   <dimension ref="B1:Q67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6859,76 +6865,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6958,12 +6964,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
@@ -7006,7 +7012,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13">
+      <c r="H10" s="138">
         <v>750</v>
       </c>
       <c r="I10" s="67"/>
@@ -7585,16 +7591,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7642,15 +7648,15 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="42"/>
       <c r="G57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="118"/>
+      <c r="I57" s="128"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7688,11 +7694,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42" t="s">
         <v>67</v>
       </c>
@@ -7708,9 +7714,9 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>44</v>
       </c>
@@ -7729,9 +7735,9 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="2" t="s">
         <v>68</v>
       </c>
@@ -7856,8 +7862,8 @@
   </sheetPr>
   <dimension ref="B1:Q68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7879,76 +7885,76 @@
       <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7978,16 +7984,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="62"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="110">
+      <c r="I7" s="139">
         <v>28</v>
       </c>
       <c r="J7" s="2"/>
@@ -8170,7 +8176,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="126">
+      <c r="H19" s="112">
         <v>1200</v>
       </c>
       <c r="I19" s="67"/>
@@ -8432,19 +8438,19 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="135">
+      <c r="C39" s="2"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="93">
         <v>60</v>
       </c>
-      <c r="F39" s="132">
+      <c r="F39" s="31">
         <v>4.7E-2</v>
       </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="126">
+      <c r="G39" s="32"/>
+      <c r="H39" s="22">
         <f>E39*F39</f>
         <v>2.82</v>
       </c>
@@ -8530,17 +8536,16 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="128"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="130">
+      <c r="C45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="140">
         <v>120</v>
       </c>
-      <c r="G45" s="131"/>
-      <c r="H45" s="126">
+      <c r="G45" s="20"/>
+      <c r="H45" s="22">
         <v>120</v>
       </c>
       <c r="I45" s="67"/>
@@ -8646,16 +8651,16 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="119" t="s">
+      <c r="B54" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="131"/>
       <c r="J54" s="39"/>
     </row>
     <row r="55" spans="2:10" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8711,10 +8716,10 @@
       <c r="G58" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="117" t="s">
+      <c r="H58" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="118"/>
+      <c r="I58" s="128"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8752,11 +8757,11 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="42" t="s">
         <v>67</v>
       </c>
@@ -8772,9 +8777,9 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="42" t="s">
         <v>44</v>
       </c>
@@ -8793,9 +8798,9 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="2:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
       <c r="E63" s="2" t="s">
         <v>68</v>
       </c>
